--- a/SRS ENTREGA/Requerimientos_NoFuncionales (0.1)lineaBase.xlsx
+++ b/SRS ENTREGA/Requerimientos_NoFuncionales (0.1)lineaBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -90,6 +90,9 @@
     <t>F1</t>
   </si>
   <si>
+    <t xml:space="preserve">El sistema debe tener toda la documentación de código desarrollado para el juego </t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -102,9 +105,15 @@
     <t>M2</t>
   </si>
   <si>
+    <t xml:space="preserve">El sistema debe tener un manual de usuario </t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
+    <t xml:space="preserve">El sistema debe terne un manual de administración </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Convenciones </t>
   </si>
   <si>
@@ -300,43 +309,10 @@
     <t>Despues de que hayan 2 jugadores en la partida se esperaran 120 segundos para iniciar el juego</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>La interaz de usuario debera ser atractiva para los jugadores</t>
-  </si>
-  <si>
-    <t>La aplicación debe ser facil de comenzar a usar para los jugadores</t>
-  </si>
-  <si>
-    <t>La aplicación debe mostrar ventanas de error cada ves que un error suceda con mensajes claros sobre lo que esta pasando</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>La aplicación debera minimizar el numero de clicks que el usuario haga para realizar una accion especifica</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>La aplicación debe ser facil para los jugadores recordar como usarla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación debe tener toda la documentación de código desarrollado para el juego </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicacion debe tener un manual de usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicacion debe tener un manual de instalacion </t>
+    <t>Si un jugador sin turno se desconecta voluntariamente de una partida el sistema debe reorganizar los turnos en no mas de 10 segundos .</t>
+  </si>
+  <si>
+    <t>Si un jugador se desconecta de una partida por una caida de la conexión, el sistema debera reorganizar los turnos en no mas de 20 segundos.</t>
   </si>
 </sst>
 </file>
@@ -800,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,82 +845,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,27 +866,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1016,6 +989,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,6 +1004,51 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,50 +1067,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1403,21 +1382,21 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1429,19 +1408,19 @@
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
       <c r="K2" s="19"/>
       <c r="L2" s="4" t="s">
         <v>16</v>
@@ -1455,21 +1434,21 @@
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="56" t="s">
+      <c r="B3" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="73"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>15</v>
@@ -1481,23 +1460,23 @@
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="73"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1507,21 +1486,21 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="73"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="19"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1531,21 +1510,21 @@
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="19"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1557,19 +1536,19 @@
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="74" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1580,19 +1559,19 @@
     </row>
     <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="19"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1603,19 +1582,19 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="19"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1626,23 +1605,23 @@
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="57"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1653,23 +1632,23 @@
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="57"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1680,17 +1659,17 @@
     </row>
     <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="76" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="57"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="19"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1701,21 +1680,23 @@
     </row>
     <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="105"/>
-      <c r="J13" s="53"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>17</v>
@@ -1728,21 +1709,23 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="53"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>21</v>
@@ -1755,21 +1738,21 @@
     </row>
     <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="105"/>
-      <c r="J15" s="53"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>18</v>
@@ -1782,17 +1765,17 @@
     </row>
     <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="23"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="105" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="105"/>
-      <c r="J16" s="53"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="19"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1803,17 +1786,17 @@
     </row>
     <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="105" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="53"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="19"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1824,23 +1807,23 @@
     </row>
     <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="80"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1851,21 +1834,21 @@
     </row>
     <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
       <c r="K19" s="19"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1876,21 +1859,21 @@
     </row>
     <row r="20" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="19"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1903,24 +1886,24 @@
       <c r="A21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="82" t="s">
+      <c r="B21" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1928,23 +1911,23 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="82"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="59"/>
       <c r="K22" s="19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L22" s="6"/>
       <c r="N22" s="2"/>
@@ -1953,23 +1936,23 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="82"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="59"/>
       <c r="K23" s="19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L23" s="6"/>
       <c r="N23" s="2"/>
@@ -1978,10 +1961,10 @@
     </row>
     <row r="24" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
@@ -1994,19 +1977,19 @@
       <c r="I24" s="83"/>
       <c r="J24" s="84"/>
       <c r="K24" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
@@ -2019,7 +2002,7 @@
       <c r="I25" s="83"/>
       <c r="J25" s="84"/>
       <c r="K25" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7"/>
     </row>
@@ -2041,128 +2024,128 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="69"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="72"/>
-      <c r="J28" s="69"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="65"/>
       <c r="K28" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="69"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="19"/>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="69"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="65"/>
       <c r="K30" s="19"/>
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="72"/>
-      <c r="J31" s="69"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="65"/>
       <c r="K31" s="19"/>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="72"/>
-      <c r="J32" s="69"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="65"/>
       <c r="K32" s="19"/>
       <c r="L32" s="8"/>
     </row>
@@ -2170,280 +2153,254 @@
       <c r="A33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="66" t="s">
+      <c r="B33" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
       <c r="K33" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="67"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
       <c r="K34" s="19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="32"/>
+      <c r="M36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="29" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="32"/>
+      <c r="M39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="29" t="s">
+      <c r="B40" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
       <c r="K40" s="31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L40" s="32"/>
       <c r="M40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" s="32"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L42" s="32"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="61"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L43" s="32"/>
-      <c r="M43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L44" s="32"/>
-      <c r="M44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A45" s="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" thickTop="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2454,13 +2411,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="46" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2471,29 +2424,22 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="15" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="47" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A47" s="3"/>
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" customHeight="1">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2505,12 +2451,9 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="16.5" customHeight="1">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2522,8 +2465,9 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" customHeight="1">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2535,8 +2479,9 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" ht="16.5" customHeight="1">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2561,8 +2506,6 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2"/>
@@ -2575,8 +2518,6 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2"/>
@@ -2586,11 +2527,6 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2"/>
@@ -2600,11 +2536,6 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2"/>
@@ -2614,9 +2545,6 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2"/>
@@ -2626,9 +2554,6 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2"/>
@@ -2639,49 +2564,23 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="H35:J35"/>
+  <mergeCells count="80">
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H21:J21"/>
@@ -2692,13 +2591,7 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H22:J22"/>
@@ -2706,8 +2599,8 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
@@ -2721,30 +2614,26 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="B37:G37"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
@@ -2752,19 +2641,11 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
